--- a/H1H2Data.xlsx
+++ b/H1H2Data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A1002"/>
+  <dimension ref="A2:A653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7007 +424,4564 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CPI:</t>
+          <t>Acumulada,</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>defendendo</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pai,</t>
+          <t>2366</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flávio</t>
+          <t>tem</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ataca</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>quarta</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>chama</t>
+          <t>[28]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pacheco</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>'ingrato'</t>
+          <t>2366</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAPA</t>
+          <t>Dois</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>apostadores</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ãltimas</t>
+          <t>levam</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>notÃ­cias</t>
+          <t>mil</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>derrota</t>
+          <t>com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>acertos</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bolsonaro,</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>concurso</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>Quina,</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>instalada</t>
+          <t>outro</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>felizardo</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>minoria</t>
+          <t>conquistou</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>governista</t>
+          <t>mil</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>acertar</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>relatoria</t>
+          <t>dezenas</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aliados</t>
+          <t>Aposta</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>feita</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>tentaram</t>
+          <t>Conjunto</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>por</t>
+          <t>Nacional</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>diversas</t>
+          <t>ganha</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vezes</t>
+          <t>mil</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>impedir</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>nomeaÃ§Ã£o</t>
+          <t>sÃ¡bado</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>senador</t>
+          <t>Bilhete</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>alagoano</t>
+          <t>valor</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>4,50</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CINCO</t>
+          <t>errou</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PONTOS</t>
+          <t>apenas</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ComentÃ¡rios</t>
+          <t>uma</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ProvÃ¡vel</t>
+          <t>dezena</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>presidente</t>
+          <t>fechou</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>quina.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>Outra</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>diz</t>
+          <t>aposta</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>feita</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>indicarÃ¡</t>
+          <t>GuarÃ¡</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>tambÃ©m</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>relator</t>
+          <t>vai</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>apesar</t>
+          <t>receber</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>decisÃ£o</t>
+          <t>60.015,09.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>judicial</t>
+          <t>PrÃªmio</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>principal</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>acumulou</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Senado</t>
+          <t>deve</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>estreia</t>
+          <t>chegar</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sob</t>
+          <t>milhÃµes</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>embate</t>
+          <t>quarta-feira</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>judicial</t>
+          <t>Aposta</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>tenta</t>
+          <t>feita</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>focar</t>
+          <t>Região</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>atraso</t>
+          <t>Serrana</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>vacinas</t>
+          <t>acerta</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Entenda</t>
+          <t>cinco</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>números</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>seus</t>
+          <t>fatura</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>poderes</t>
+          <t>mais</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>veja</t>
+          <t>mil</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>lista</t>
+          <t>VEJA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>senadores</t>
+          <t>MAIS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>VEJA</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>compÃµe</t>
+          <t>MAIS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>comissÃ£o</t>
+          <t>COVID-19</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Veja</t>
+          <t>Oportunidades</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>mapa</t>
+          <t>REGIÃO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>apuraÃ§Ã£o</t>
+          <t>NORTE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>todas</t>
+          <t>REGIÃO</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>cidades</t>
+          <t>NOROESTE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>REGIÃO</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Acompanhe</t>
+          <t>SERRANA</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>notÃ­cias</t>
+          <t>Aposta</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sobre</t>
+          <t>Brusque</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>eleiÃ§Ãµes</t>
+          <t>acerta</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>todo</t>
+          <t>quina</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>paÃ­s</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Mais</t>
+          <t>leva</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>lidas</t>
+          <t>mais</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Poder</t>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>derrota</t>
+          <t>mil</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>Aposta</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bolsonaro,</t>
+          <t>Brusque</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>acerta</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>quina</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>instalada</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>leva</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>minoria</t>
+          <t>mais</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>governista</t>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>mil</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>relatoria</t>
+          <t>SUGIRA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Diretor</t>
+          <t>CORREÇÃO</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>fundo</t>
+          <t>MENU</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>russo</t>
+          <t>MENU</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>chama</t>
+          <t>TEXTOS</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Anvisa</t>
+          <t>NOTÍCIAS</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>antiprofissional</t>
+          <t>EXTRAS</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>mentirosa</t>
+          <t>FALE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>por</t>
+          <t>CONOSCO</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>barrar</t>
+          <t>TERMOS</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Sputnik</t>
+          <t>USO</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Blog</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Guedes</t>
+          <t>Editor</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>diz</t>
+          <t>ÚLTIMAS</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>NOTICIAS</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>'chinÃªs</t>
+          <t>LEGISLAÇÃO</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>inventou</t>
+          <t>Ninguém</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>vÃ­rus'</t>
+          <t>acerta</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>seis</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>vacina</t>
+          <t>dezenas</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>menos</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>eficiente</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>vai</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Pesquisadores</t>
+          <t>Navegação</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>culpam</t>
+          <t>Post</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>Mulher</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>por</t>
+          <t>apresenta</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>crise</t>
+          <t>como</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>covid</t>
+          <t>ganhadora</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>dizem</t>
+          <t>'prêmio</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ser</t>
+          <t>esquecido'</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>'ignorados'</t>
+          <t>162</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>destaca</t>
+          <t>Mega</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>falas</t>
+          <t>Virada</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>polêmicas</t>
+          <t>diz</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>ter</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Marco</t>
+          <t>'confusão</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AurÃ©lio</t>
+          <t>mental';</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>envia</t>
+          <t>Procon</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>vai</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>notÃ­cia-crime</t>
+          <t>periciar</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>contra</t>
+          <t>bilhete</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>Filhos</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>por</t>
+          <t>Bolsonaro</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>cheques</t>
+          <t>têm</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Queiroz</t>
+          <t>interesse</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ano</t>
+          <t>abertura</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>passado,</t>
+          <t>cassinos</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>foram</t>
+          <t>Amazônia</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>revelados</t>
+          <t>Pela</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>depÃ³sitos</t>
+          <t>vez,</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Queiroz</t>
+          <t>erro</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>sua</t>
+          <t>sorteio</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>esposa</t>
+          <t>Lotomania</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>conta</t>
+          <t>irrita</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>primeira-dama,</t>
+          <t>apostadores</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>atrasa</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Bolsonaro,</t>
+          <t>sorteios</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>Análise:</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>somavam</t>
+          <t>equívocos</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>mil.</t>
+          <t>Ministro</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Queiroz</t>
+          <t>Turismo</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>era</t>
+          <t>sobre</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>assessor</t>
+          <t>modelo</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>parlamentar</t>
+          <t>resorts</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FlÃ¡vio</t>
+          <t>integrados</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Bolsonaro,</t>
+          <t>Questionamentos</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>filho</t>
+          <t>sobre</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>presidente,</t>
+          <t>julgamento</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ã©poca</t>
+          <t>966.177</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>pelo</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ele</t>
+          <t>Supremo</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>era</t>
+          <t>Tribunal</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>deputado</t>
+          <t>Federal</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>estadual</t>
+          <t>Paraná</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Pesquisas:</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Política</t>
+          <t>maioria</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Flávio</t>
+          <t>dos</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>brasileiros</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>fala</t>
+          <t>aprova</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>'ingratidão'</t>
+          <t>jogos</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Pacheco</t>
+          <t>azar</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>por</t>
+          <t>após</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>permitir</t>
+          <t>conhecer</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>vantagens</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>legalização</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Senador</t>
+          <t>BNL</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>por</t>
+          <t>DATA</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Minas</t>
+          <t>Siga-nos</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Gerais</t>
+          <t>ÚLTIMAS</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>recebeu</t>
+          <t>NOTÍCIAS</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>apoio</t>
+          <t>Mulher</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Planalto</t>
+          <t>apresenta</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>eleição</t>
+          <t>como</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>ganhadora</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>comando</t>
+          <t>'prêmio</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Senado.</t>
+          <t>esquecido'</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>162</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>instalada</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>nesta</t>
+          <t>Mega</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>terça</t>
+          <t>Virada</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>(27)</t>
+          <t>diz</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>vai</t>
+          <t>ter</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>investigar</t>
+          <t>'confusão</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>atuação</t>
+          <t>mental';</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>governo</t>
+          <t>Procon</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>federal</t>
+          <t>vai</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>pandemia.</t>
+          <t>periciar</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Flávio</t>
+          <t>bilhete</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>queria</t>
+          <t>Filhos</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Pacheco</t>
+          <t>Bolsonaro</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>'mais</t>
+          <t>têm</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>incisivo'</t>
+          <t>interesse</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>abertura</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Calheiros</t>
+          <t>cassinos</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>governadores</t>
+          <t>Amazônia</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Trabalho</t>
+          <t>Pela</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>técnico</t>
+          <t>vez,</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>VÍDEOS:</t>
+          <t>erro</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>assista</t>
+          <t>sorteio</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>mais</t>
+          <t>Lotomania</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>notícias</t>
+          <t>irrita</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>sobre</t>
+          <t>apostadores</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>política</t>
+          <t>atrasa</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CrÃ­tico</t>
+          <t>sorteios</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>isolamento,</t>
+          <t>Mais</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>FlÃ¡vio</t>
+          <t>lidas</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>Caixa</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>reclama</t>
+          <t>abre</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>licitação</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>para</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>pode</t>
+          <t>lotéricas</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>causar</t>
+          <t>Ceará</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>aglomeraÃ§Ãµes</t>
+          <t>Bahia</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Senador</t>
+          <t>Deputado</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>sempre</t>
+          <t>solicita</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>colocou</t>
+          <t>FNDE</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>contra</t>
+          <t>vai</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>medidas</t>
+          <t>utilizar</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>distanciamento</t>
+          <t>recursos</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>loterias</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>como</t>
+          <t>para</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>forma</t>
+          <t>prorrogar</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>prevenÃ§Ã£o</t>
+          <t>contratos</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>covid-19,</t>
+          <t>Fies</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>mas</t>
+          <t>Controladora</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>mudou</t>
+          <t>Betway</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>opiniÃ£o</t>
+          <t>aproxima</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>acordo</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>questionar</t>
+          <t>US$</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>instalaÃ§Ã£o</t>
+          <t>5,1</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>bilhões</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Flávio</t>
+          <t>para</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Bolsonaro:</t>
+          <t>abrir</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>mulher</t>
+          <t>capital</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>Nasdaq</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>faz</t>
+          <t>DESTAQUE</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>questão</t>
+          <t>Filhos</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>estar</t>
+          <t>Bolsonaro</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CPI;</t>
+          <t>têm</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>senadora</t>
+          <t>interesse</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>rebate</t>
+          <t>abertura</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>"Palanque</t>
+          <t>cassinos</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>político</t>
+          <t>Amazônia</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>Pela</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>caixões"</t>
+          <t>vez,</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>erro</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>reúne</t>
+          <t>sorteio</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>Lotomania</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ministros</t>
+          <t>irrita</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>TCU</t>
+          <t>apostadores</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>atrasa</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>instalação</t>
+          <t>sorteios</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>Acordo</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>aos</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Bezerra</t>
+          <t>Seminoles</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>reclama</t>
+          <t>controle</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>adjetivos</t>
+          <t>exclusivo</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>fala</t>
+          <t>sobre</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>apostas</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>chamado</t>
+          <t>esportivas</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>'querido</t>
+          <t>Flórida</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>amigo'</t>
+          <t>Resultado</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Próxima</t>
+          <t>Mega-Sena:</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>sessão</t>
+          <t>Confira</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>dezenas</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>será</t>
+          <t>sorteadas</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>5ª,</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>aprovação</t>
+          <t>Auxílio-doença</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>plano</t>
+          <t>INSS</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>trabalho</t>
+          <t>pago</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>por</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>quer</t>
+          <t>dias</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>iniciar</t>
+          <t>sem</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>perícia</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>médica!</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>convocando</t>
+          <t>Como</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Marcelo</t>
+          <t>receber?</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Queiroga</t>
+          <t>Vapt</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Barra</t>
+          <t>Vupt</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Goiás</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>aumenta</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>fala</t>
+          <t>atendimento</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>'punição</t>
+          <t>para</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>imediata'</t>
+          <t>emitir</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>quem</t>
+          <t>pandemia</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>contribuiu</t>
+          <t>IPTU</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>mortes</t>
+          <t>Goiânia:</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>pandemia</t>
+          <t>ESTES</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Senador</t>
+          <t>contribuintes</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>governista</t>
+          <t>terão</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>classifica</t>
+          <t>direito</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>como</t>
+          <t>isenção</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>‘tratorada’</t>
+          <t>imposto;</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>eleição</t>
+          <t>entenda</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Aziz</t>
+          <t>403</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>indicação</t>
+          <t>Forbidden</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>2366</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>sorteia</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Renan,</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>'santo'</t>
+          <t>acumulado</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>volta</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>aos</t>
+          <t>quarta</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>holofotes:</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>"Não</t>
+          <t>2366</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>somos</t>
+          <t>Mega-Sena,</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>discípulos</t>
+          <t>concurso</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Dallagnol</t>
+          <t>2.365:</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Moro"</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Bezerra</t>
+          <t>vai</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>reclama</t>
+          <t>Mega-Sena:</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>adjetivos</t>
+          <t>confira</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>fala</t>
+          <t>probabilidades</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>ganhar</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>chamado</t>
+          <t>Onde</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>'querido</t>
+          <t>fazer</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>amigo'</t>
+          <t>uma</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Flávio</t>
+          <t>aposta?</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>peita</t>
+          <t>acumula,</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Pacheco</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>estimado</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>instalação</t>
+          <t>chega</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>Inscrições</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Fernando</t>
+          <t>para</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Bezerra</t>
+          <t>cursos</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>apontado</t>
+          <t>Escola</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>pelo</t>
+          <t>Ambiental</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Planalto</t>
+          <t>prosseguem</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>como</t>
+          <t>até</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>responsável</t>
+          <t>dia</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>por</t>
+          <t>abril</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>derrotas</t>
+          <t>Minha</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>governo</t>
+          <t>Casa</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>Melhor:</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>veja</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Guedes</t>
+          <t>aqui</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>diz</t>
+          <t>quem</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>foi</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>chinês</t>
+          <t>contemplado</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>'inventou</t>
+          <t>sorteio</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>vírus'</t>
+          <t>deste</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>sábado</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>vacina</t>
+          <t>(24)</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>menos</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>eficiente</t>
+          <t>acumulada</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>sorteia</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>EUA</t>
+          <t>neste</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>sábado</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>palanque</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>político</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>caixões</t>
+          <t>acumula,</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>mil</t>
+          <t>estimado</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>mortes,</t>
+          <t>chega</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>diz</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Flávio</t>
+          <t>IFMA</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>abre</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Relatoria</t>
+          <t>inscrições</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>gratuitas</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>para</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>“Quantas</t>
+          <t>Jornada</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>vacinas</t>
+          <t>Gastronômica</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>essa</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>acumula</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>vai</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>aplicar?”,</t>
+          <t>sobe</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>questiona</t>
+          <t>para</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Flávio</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>Confira</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Receba</t>
+          <t>números</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>newsletter</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Poder360todos</t>
+          <t>sorteados</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>dias</t>
+          <t>último</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>seu</t>
+          <t>sábado</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>(24),</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Leia</t>
+          <t>São</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>mais</t>
+          <t>Paulo</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>diz</t>
+          <t>acumula</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>após</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>pautará</t>
+          <t>ninguém</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>por</t>
+          <t>acertar</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>“isenção</t>
+          <t>seis</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>imparcialidade”</t>
+          <t>dezenas;</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>relatoria</t>
+          <t>saiba</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>qual</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Presidente</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>Leia</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>irrita</t>
+          <t>mais</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>min</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>questionamentos</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>sobre</t>
+          <t>sorteia</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Renan:</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>“Qual</t>
+          <t>2,5</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>medo?”</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>nesta</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Covid-19</t>
+          <t>quinta-feira</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>elege</t>
+          <t>min</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Veja</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Aziz</t>
+          <t>números</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>presidente;</t>
+          <t>sorteados</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Calheiros</t>
+          <t>concurso</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>será</t>
+          <t>2.363</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>relator</t>
+          <t>deste</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Leia</t>
+          <t>sábado</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>mais</t>
+          <t>min</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Saúde</t>
+          <t>Mega-Sena,</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>recomenda</t>
+          <t>concurso</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>aplicação</t>
+          <t>2362:</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>dose</t>
+          <t>Confira</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>vacinas</t>
+          <t>números</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>mesmo</t>
+          <t>sorteados</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>fora</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>prazo</t>
+          <t>sorteia</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Fabricante</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Sputnik</t>
+          <t>2,5</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>diz</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>nesta</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>decisão</t>
+          <t>quinta-feira</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Anvisa</t>
+          <t>Veja</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>foi</t>
+          <t>números</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>por</t>
+          <t>sorteados</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>“pressão</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>política”</t>
+          <t>concurso</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>TRF-1</t>
+          <t>2.363</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>derruba</t>
+          <t>deste</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>liminar</t>
+          <t>sábado</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>abre</t>
+          <t>Mega-Sena,</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>caminho</t>
+          <t>concurso</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>2362:</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>Confira</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Calheiros</t>
+          <t>números</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>relatar</t>
+          <t>sorteados</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>Vencedores</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>quina</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Mais</t>
+          <t>Lidas</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>populares</t>
+          <t>Defesa</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Congresso</t>
+          <t>Civil</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Todas</t>
+          <t>emite</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>notícias</t>
+          <t>alerta</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Congresso</t>
+          <t>por</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Justiça</t>
+          <t>‘combo’</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>proíbe</t>
+          <t>maré</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>nomear</t>
+          <t>astronômica</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>meteorológica;</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Calheiros</t>
+          <t>confira</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>relator</t>
+          <t>Amigos</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>próximos</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>Medina</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Ex-senadora</t>
+          <t>têm</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Heloísa</t>
+          <t>opinião</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>inesperada</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ganha</t>
+          <t>sobre</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>cargo</t>
+          <t>Yasmin</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>volta</t>
+          <t>Brunet</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Senado</t>
+          <t>briga</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Pacheco</t>
+          <t>familiar</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>diz</t>
+          <t>Carro</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>sem</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Senado</t>
+          <t>pneu</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>escolhe</t>
+          <t>‘passeia’</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>relator</t>
+          <t>por</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>Chapecó;</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>“não</t>
+          <t>VEJA</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>admite</t>
+          <t>VÍDEO</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>interferência”</t>
+          <t>Superlua</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>juiz</t>
+          <t>Rosa:</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Guedes</t>
+          <t>saiba</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>quer</t>
+          <t>que</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>aprovar</t>
+          <t>horas</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>reforma</t>
+          <t>fenômeno</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>tributária</t>
+          <t>será</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>fases,</t>
+          <t>visto</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>priorizando</t>
+          <t>céu</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>IVA</t>
+          <t>nesta</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>dual</t>
+          <t>segunda-feira</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Eduardo</t>
+          <t>Após</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>batida</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ataca</t>
+          <t>com</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>líderes</t>
+          <t>morte,</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>MBL</t>
+          <t>carga</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>nas</t>
+          <t>vinho</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>redes</t>
+          <t>saqueada</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>sociais</t>
+          <t>Chapecó;</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Randolfe</t>
+          <t>veja</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>diz</t>
+          <t>vídeo</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>Loterias</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>Mega-Sena,</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>plano</t>
+          <t>concurso</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Justiça</t>
+          <t>2364:</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>mantiver</t>
+          <t>Veja</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>decisão</t>
+          <t>números</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>sorteados</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>barra</t>
+          <t>nesta</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>quarta-feira</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Queiroga</t>
+          <t>Procon</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>critica</t>
+          <t>procurado</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>governadores</t>
+          <t>por</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>diz</t>
+          <t>suposto</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>vencedor</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>vacinação</t>
+          <t>Mega</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>Virada</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>“acelerado”</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>véspera</t>
+          <t>sorteia</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>CPI,</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>senadores</t>
+          <t>2,5</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>críticos</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>governo</t>
+          <t>nesta</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>reúnem</t>
+          <t>quinta-feira</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>jantar</t>
+          <t>Prêmio</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>vivo:</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>CCJ</t>
+          <t>mil</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Câmara</t>
+          <t>vai</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>debate</t>
+          <t>para</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>admissibilidade</t>
+          <t>morador</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>reforma</t>
+          <t>cidade</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>administrativa</t>
+          <t>com</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Lira</t>
+          <t>mil</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>procura</t>
+          <t>habitantes</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Guedes</t>
+          <t>Prêmio</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>diz</t>
+          <t>milionário</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>deixou</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>reforma</t>
+          <t>ser</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>tributária</t>
+          <t>resgatado</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>será</t>
+          <t>Prêmio</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>debatida</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>“por</t>
+          <t>acumula</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>partes”</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Zambelli</t>
+          <t>sábado</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>pede</t>
+          <t>(24)</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>suspensão</t>
+          <t>Leia</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>também...</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>caso</t>
+          <t>Acústica</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Senado</t>
+          <t>Mega</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>descumpra</t>
+          <t>Sena</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>decisão</t>
+          <t>2365:</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>veja</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>veta</t>
+          <t>números</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Renan</t>
+          <t>sorteados</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>vivo:</t>
+          <t>neste</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>sábado,</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Covid</t>
+          <t>abril</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>instalada</t>
+          <t>Últimas</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Senado</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Que</t>
+          <t>acumula</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>bom!</t>
+          <t>milhões;</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>aposta</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>gostou?</t>
+          <t>Brusque</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>"Quantas</t>
+          <t>acerta</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>vacinas</t>
+          <t>quina</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>essa</t>
+          <t>leva</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>mais</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>vai</t>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>aplicar?",</t>
+          <t>mil</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>questiona</t>
+          <t>Confira</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Flávio</t>
+          <t>mais</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>Santa</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Você</t>
+          <t>Catarina</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>fez</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>alterações</t>
+          <t>acumula</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>sua</t>
+          <t>novamente</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>conta.Deseja</t>
+          <t>prêmio</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>salvar</t>
+          <t>sobe</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>antes</t>
+          <t>para</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>sair?</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Atenção:</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>mais</t>
+          <t>acumula</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>campos</t>
+          <t>pode</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>vazios.Se</t>
+          <t>pagar</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>você</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>salvar</t>
+          <t>próxima</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>seus</t>
+          <t>quarta</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>dados</t>
+          <t>Agora</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>maneira</t>
+          <t>Litoral</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>incompleta</t>
+          <t>Oito</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>apostas</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>poderá</t>
+          <t>Litoral</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>receber</t>
+          <t>acertam</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>alertas</t>
+          <t>quadra</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Poder360.</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Receba</t>
+          <t>Mais</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>newsletter</t>
+          <t>três</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Poder360.</t>
+          <t>óbitos</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>todos</t>
+          <t>novos</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>dias</t>
+          <t>casos</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>seu</t>
+          <t>Covid</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>são</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Compartilhe</t>
+          <t>confirmados</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Litoral</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>quem</t>
+          <t>Paraná</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>vai</t>
+          <t>soma</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>receber</t>
+          <t>925.687</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>conteúdo</t>
+          <t>casos</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Suas</t>
+          <t>21.507</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>informações</t>
+          <t>óbitos</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Compartilhe</t>
+          <t>Caixa</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>nas</t>
+          <t>inicia</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>redes</t>
+          <t>campanha</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>sociais:</t>
+          <t>arrecadação</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Fale</t>
+          <t>alimentos</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>Shows</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>autor</t>
+          <t>online</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Suas</t>
+          <t>marcarão</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>informações</t>
+          <t>passagem</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Aponte</t>
+          <t>Dia</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>erros</t>
+          <t>Trabalhador</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>neste</t>
+          <t>Paranaguá</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>texto</t>
+          <t>Mega-Sena</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>"Quantas</t>
+          <t>acumula</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>vacinas</t>
+          <t>pode</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>essa</t>
+          <t>pagar</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>CPI</t>
+          <t>milhões</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>vai</t>
+          <t>quarta</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>aplicar?",</t>
+          <t>quina</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>questiona</t>
+          <t>teve</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Flávio</t>
+          <t>apostas</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
+          <t>ganhadoras.</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Suas</t>
+          <t>Cada</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>informações</t>
+          <t>receberá</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Maia</t>
+          <t>60.015,09.</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>lamenta</t>
+          <t>quadra</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>atuação</t>
+          <t>teve</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>2.940</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>defesa</t>
+          <t>apostas</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>Entrevista</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>Wajngarten</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>'parece</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>combinada',</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>diz</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>Rodrigo</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>Maia</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>'Guedes</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>aceita</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>qualquer</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>acordo</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>para</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>manter</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>cargo',</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>diz</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>Rodrigo</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>Maia</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>Maia:</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>Guedes</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>vai</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>'sair</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>desmoralizado</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>governo'</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>Rodrigo</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>Maia:</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>'Arthur</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>Lira</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>virou</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>humorista'</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>Autores</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>impeachment</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>pressionam</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>Nunes</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>Marques</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>Renan,</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>'santo'</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>volta</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>aos</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>holofotes:</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>"Não</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>somos</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>discípulos</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>Dallagnol</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>Moro"</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>Bezerra</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>reclama</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>adjetivos</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>fala</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>Renan</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>chamado</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>'querido</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>amigo'</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>Flávio</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>peita</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>Pacheco</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>dia</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>instalação</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>Covid</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>Fernando</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>Bezerra</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>apontado</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>pelo</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>Planalto</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>como</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>responsável</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>por</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>derrotas</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>governo</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>Covid</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>Guedes</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>diz</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>que</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>chinês</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>'inventou</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>vírus'</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>tem</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>vacina</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>menos</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>eficiente</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>que</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>EUA</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>Flávio</t>
-        </is>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>diz</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>que</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>Pacheco</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>foi</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>irresponsável</t>
-        </is>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>ingrato</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>permitir</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>Senador</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>filho</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>presidente</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>República</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>criticou</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>presidente</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>Senado</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>disse</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>que</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>coloca</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>risco</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>parlamentares,</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>assessores</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>outros</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>servidores</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>por</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>causa</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>sessões</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>presenciais</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>Pacheco</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>foi</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>ingrato</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>instalar</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>Covid,</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>diz</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>FlÃ¡vio</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>Filho</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>presidente</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>nÃ£o</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>estÃ¡</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>colegiado,</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>mas</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>acompanhou</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>inÃ­cio</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>dos</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>trabalhos</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>conversou</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>imprensa</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>nesta</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>terÃ§a-feira</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>(27/4).</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>Disse</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>que</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>funcionasse,</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>todas</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>outras</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>comissÃµes</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>parlamentares</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>inquÃ©rito</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>deveriam</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>funcionar</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>tambÃ©m</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>Haddad:</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>visto</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>pelo</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>mundo</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>como</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>uma</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>‘aberração’</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>Balanço</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>macabro</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>Impeachment</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>Leia</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>também</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>Últimas</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>notícias</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>Covid:</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>Flávio</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>sobe</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr">
-        <is>
-          <t>tom</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>contra</t>
-        </is>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>Rodrigo</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>Pacheco</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>Somente</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>nesta</t>
-        </is>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>terça-feira,</t>
-        </is>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>filho</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>presidente</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>acusou</t>
-        </is>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>presidente</t>
-        </is>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>Senado</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>ingrato</t>
-        </is>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>irresponsável</t>
-        </is>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>disse</t>
-        </is>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>que</t>
-        </is>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>ele</t>
-        </is>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>errou</t>
-        </is>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>instalar</t>
-        </is>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>comissão</t>
-        </is>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>Com</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>braço</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>tipóia,</t>
-        </is>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>Flávio</t>
-        </is>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>vai</t>
-        </is>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>COVID</t>
-        </is>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>defender</t>
-        </is>
-      </c>
-    </row>
-    <row r="858">
-      <c r="A858" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" t="inlineStr">
-        <is>
-          <t>CAPA</t>
-        </is>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" t="inlineStr">
-        <is>
-          <t>Flávio</t>
-        </is>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" t="inlineStr">
-        <is>
-          <t>articula</t>
-        </is>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" t="inlineStr">
-        <is>
-          <t>para</t>
-        </is>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" t="inlineStr">
-        <is>
-          <t>tirar</t>
-        </is>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" t="inlineStr">
-        <is>
-          <t>Republicanos</t>
-        </is>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" t="inlineStr">
-        <is>
-          <t>bloco</t>
-        </is>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" t="inlineStr">
-        <is>
-          <t>MDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" t="inlineStr">
-        <is>
-          <t>Renan</t>
-        </is>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" t="inlineStr">
-        <is>
-          <t>fala</t>
-        </is>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" t="inlineStr">
-        <is>
-          <t>'punição</t>
-        </is>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" t="inlineStr">
-        <is>
-          <t>imediata'</t>
-        </is>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" t="inlineStr">
-        <is>
-          <t>quem</t>
-        </is>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" t="inlineStr">
-        <is>
-          <t>contribuiu</t>
-        </is>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" t="inlineStr">
-        <is>
-          <t>com</t>
-        </is>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" t="inlineStr">
-        <is>
-          <t>mortes</t>
-        </is>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" t="inlineStr">
-        <is>
-          <t>pandemia</t>
-        </is>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" t="inlineStr">
-        <is>
-          <t>Senador</t>
-        </is>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" t="inlineStr">
-        <is>
-          <t>governista</t>
-        </is>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" t="inlineStr">
-        <is>
-          <t>classifica</t>
-        </is>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" t="inlineStr">
-        <is>
-          <t>como</t>
-        </is>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" t="inlineStr">
-        <is>
-          <t>‘tratorada’</t>
-        </is>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" t="inlineStr">
-        <is>
-          <t>eleição</t>
-        </is>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" t="inlineStr">
-        <is>
-          <t>Aziz</t>
-        </is>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>indicação</t>
-        </is>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" t="inlineStr">
-        <is>
-          <t>Renan</t>
-        </is>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" t="inlineStr">
-        <is>
-          <t>Covid</t>
-        </is>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>Renan,</t>
-        </is>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" t="inlineStr">
-        <is>
-          <t>'santo'</t>
-        </is>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" t="inlineStr">
-        <is>
-          <t>volta</t>
-        </is>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" t="inlineStr">
-        <is>
-          <t>aos</t>
-        </is>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" t="inlineStr">
-        <is>
-          <t>holofotes:</t>
-        </is>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" t="inlineStr">
-        <is>
-          <t>"Não</t>
-        </is>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" t="inlineStr">
-        <is>
-          <t>somos</t>
-        </is>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" t="inlineStr">
-        <is>
-          <t>discípulos</t>
-        </is>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" t="inlineStr">
-        <is>
-          <t>Dallagnol</t>
-        </is>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" t="inlineStr">
-        <is>
-          <t>Moro"</t>
-        </is>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" t="inlineStr">
-        <is>
-          <t>MDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
-          <t>vai</t>
-        </is>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>denunciar</t>
-        </is>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" t="inlineStr">
-        <is>
-          <t>juiz</t>
-        </is>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" t="inlineStr">
-        <is>
-          <t>por</t>
-        </is>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" t="inlineStr">
-        <is>
-          <t>'agressão</t>
-        </is>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" t="inlineStr">
-        <is>
-          <t>violenta'</t>
-        </is>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" t="inlineStr">
-        <is>
-          <t>Renan</t>
-        </is>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" t="inlineStr">
-        <is>
-          <t>Calheiros</t>
-        </is>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" t="inlineStr">
-        <is>
-          <t>Fernando</t>
-        </is>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t>Bezerra</t>
-        </is>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>apontado</t>
-        </is>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>pelo</t>
-        </is>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>Planalto</t>
-        </is>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>como</t>
-        </is>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>responsável</t>
-        </is>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" t="inlineStr">
-        <is>
-          <t>por</t>
-        </is>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>derrotas</t>
-        </is>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>governo</t>
-        </is>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>Covid</t>
-        </is>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>Guedes</t>
-        </is>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>diz</t>
-        </is>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>que</t>
-        </is>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>chinês</t>
-        </is>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>'inventou</t>
-        </is>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>vírus'</t>
-        </is>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>tem</t>
-        </is>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>vacina</t>
-        </is>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>menos</t>
-        </is>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>eficiente</t>
-        </is>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>que</t>
-        </is>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>EUA</t>
-        </is>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>Fernando</t>
-        </is>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>Bezerra</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>apontado</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>pelo</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>Planalto</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>como</t>
-        </is>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>responsável</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>por</t>
-        </is>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>derrotas</t>
-        </is>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>governo</t>
-        </is>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="inlineStr">
-        <is>
-          <t>Covid</t>
-        </is>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="inlineStr">
-        <is>
-          <t>Flávio</t>
-        </is>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>peita</t>
-        </is>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" t="inlineStr">
-        <is>
-          <t>Pacheco</t>
-        </is>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>dia</t>
-        </is>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="inlineStr">
-        <is>
-          <t>instalação</t>
-        </is>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>Covid</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>Obrigado</t>
-        </is>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="inlineStr">
-        <is>
-          <t>pela</t>
-        </is>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="inlineStr">
-        <is>
-          <t>leitura,</t>
-        </is>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" t="inlineStr">
-        <is>
-          <t>senador</t>
-        </is>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" t="inlineStr">
-        <is>
-          <t>Flávio</t>
-        </is>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>negocia</t>
-        </is>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>compra</t>
-        </is>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>apoio</t>
-        </is>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>Covid</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="inlineStr">
-        <is>
-          <t>Senado:</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="inlineStr">
-        <is>
-          <t>Flávio</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>pedirá</t>
-        </is>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="inlineStr">
-        <is>
-          <t>para</t>
-        </is>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="inlineStr">
-        <is>
-          <t>Republicanos</t>
-        </is>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="inlineStr">
-        <is>
-          <t>deixar</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>bloco</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>MDB</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>Senador</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>ainda</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr">
-        <is>
-          <t>alfinetou</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>parlamentares</t>
-        </is>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>femininas</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>foi</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>acusado</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>"ironias</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>machistas"</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>pela</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>senador</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>Eliziane</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>Gama</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>Flávio</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>Bolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>tenta</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>impedir</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>Renan</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>Calheiros</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>ser</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>relator</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>Covid</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>ficou</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>definida</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>composição</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>CPI?</t>
+          <t>ganhadoras.</t>
         </is>
       </c>
     </row>
